--- a/biology/Botanique/Leccinum_cyaneobasileucum/Leccinum_cyaneobasileucum.xlsx
+++ b/biology/Botanique/Leccinum_cyaneobasileucum/Leccinum_cyaneobasileucum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rude à base bleue
 Leccinum cyaneobasileucum, le Bolet rude à base bleue, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par sa chair légèrement roussissante/grisonnante au niveau du pied à la coupe et à son bout du pied souvent taché de bleu.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Leccinum cyaneobasileucum Lannoy &amp; Estadès[1].
-Synonymes
-Leccinum cyaneobasileucum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum cyaneobasileucum Lannoy &amp; Estadès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_cyaneobasileucum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_cyaneobasileucum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leccinum cyaneobasileucum a pour synonymes :
 Leccinum brunneogriseolum f. chlorinum Lannoy &amp; Estadès
 Leccinum brunneogriseolum var. pubescens Lannoy &amp; Estadès
 Leccinum brunneogriseolum var. pubescentium Lannoy &amp; Estadès
@@ -529,39 +578,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Leccinum_cyaneobasileucum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leccinum_cyaneobasileucum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Leccinum cyaneobasileucum, le Bolet rude à base bleue, sont les suivantes :
-Son chapeau est de couleur blanchâtre à crème[2],[3].
-L'hyménophore présente des pores blanchâtres puis brun grisâtres[3].
-Son stipe est blanchâtre, orné de méchules blanches ou crème fonçant avec l'âge pour devenir brunâtres. La base est souvent tâchée de vert-bleu à bleu plus ou moins étendu, visible parfois seulement après la coupe[2],[3].
-La chair est de couleur blanchâtre, peu rosi-roussissante puis olivacé grisâtre à la coupe dans le stipe, mais pas dans le chapeau, tachée de bleuâtre au niveau de sa base. Sa saveur est douce et son odeur n'est pas distinctive[2],[3].
-Caractéristiques microscopiques
-Ses spores mesurent 15-20 x 4-6,5 µm[3].
+Son chapeau est de couleur blanchâtre à crème,.
+L'hyménophore présente des pores blanchâtres puis brun grisâtres.
+Son stipe est blanchâtre, orné de méchules blanches ou crème fonçant avec l'âge pour devenir brunâtres. La base est souvent tâchée de vert-bleu à bleu plus ou moins étendu, visible parfois seulement après la coupe,.
+La chair est de couleur blanchâtre, peu rosi-roussissante puis olivacé grisâtre à la coupe dans le stipe, mais pas dans le chapeau, tachée de bleuâtre au niveau de sa base. Sa saveur est douce et son odeur n'est pas distinctive,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_cyaneobasileucum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_cyaneobasileucum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 15-20 x 4-6,5 µm.
 </t>
         </is>
       </c>
